--- a/results/DeterministicUSM/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -642,13 +642,13 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>429.5744123837694</v>
+        <v>557.3957175557402</v>
       </c>
       <c r="H2">
-        <v>130.9590107946355</v>
+        <v>199.8958885700265</v>
       </c>
       <c r="I2">
-        <v>298.6154015891339</v>
+        <v>357.4998289857137</v>
       </c>
       <c r="J2">
         <v>0.1</v>
@@ -663,7 +663,7 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.8352882361828123</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>557.3957175557402</v>
@@ -681,16 +681,16 @@
         <v>2.788430125017185</v>
       </c>
       <c r="T2">
-        <v>3.280220351216688</v>
+        <v>2.788430125017185</v>
       </c>
       <c r="U2">
-        <v>1.187910600388551</v>
+        <v>1.025478758264612</v>
       </c>
       <c r="V2">
-        <v>143.0478044497877</v>
+        <v>152.5108413927217</v>
       </c>
       <c r="W2">
-        <v>704.3933470643726</v>
+        <v>645.5089196677927</v>
       </c>
       <c r="X2">
         <v>1003.008748653506</v>
@@ -699,7 +699,7 @@
         <v>645.5089196677927</v>
       </c>
       <c r="Z2">
-        <v>1.091221709882622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -722,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>512.7522837137832</v>
+        <v>483.6791066880775</v>
       </c>
       <c r="H3">
-        <v>174.7493791716485</v>
+        <v>214.5169211132398</v>
       </c>
       <c r="I3">
-        <v>338.0029045421347</v>
+        <v>269.1621855748377</v>
       </c>
       <c r="J3">
         <v>0.1</v>
@@ -743,10 +743,10 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.7471633145681147</v>
+        <v>0.5949892975118621</v>
       </c>
       <c r="O3">
-        <v>528.7049157365506</v>
+        <v>528.7049157365504</v>
       </c>
       <c r="P3">
         <v>76.32335744562776</v>
@@ -755,22 +755,22 @@
         <v>1.935451443118261</v>
       </c>
       <c r="R3">
-        <v>304.6614059791517</v>
+        <v>304.6614059791516</v>
       </c>
       <c r="S3">
-        <v>6.927170573086965</v>
+        <v>6.927170573086964</v>
       </c>
       <c r="T3">
-        <v>2.934215195180347</v>
+        <v>2.254736382463515</v>
       </c>
       <c r="U3">
-        <v>1.076440022355062</v>
+        <v>0.813033062557036</v>
       </c>
       <c r="V3">
-        <v>149.8956789200722</v>
+        <v>94.75283623183424</v>
       </c>
       <c r="W3">
-        <v>688.1791554559759</v>
+        <v>757.019874423273</v>
       </c>
       <c r="X3">
         <v>1026.182059998111</v>
@@ -779,7 +779,7 @@
         <v>573.8005017071878</v>
       </c>
       <c r="Z3">
-        <v>1.199335227850944</v>
+        <v>1.319308491663855</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -802,13 +802,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>328.452455621418</v>
+        <v>381.4993118998268</v>
       </c>
       <c r="H4">
-        <v>95.99503128114034</v>
+        <v>145.4911264511025</v>
       </c>
       <c r="I4">
-        <v>232.4574243402776</v>
+        <v>236.0081854487242</v>
       </c>
       <c r="J4">
         <v>0.1</v>
@@ -823,10 +823,10 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.6604893117373379</v>
+        <v>0.6705782119620457</v>
       </c>
       <c r="O4">
-        <v>456.6260876059086</v>
+        <v>456.6260876059084</v>
       </c>
       <c r="P4">
         <v>104.67879609134</v>
@@ -835,22 +835,22 @@
         <v>1.472968290199861</v>
       </c>
       <c r="R4">
-        <v>197.7587442157276</v>
+        <v>197.7587442157275</v>
       </c>
       <c r="S4">
-        <v>4.362164112085017</v>
+        <v>4.362164112085015</v>
       </c>
       <c r="T4">
-        <v>3.421556837243798</v>
+        <v>2.622148313822034</v>
       </c>
       <c r="U4">
-        <v>1.230095663063701</v>
+        <v>0.9639939488912774</v>
       </c>
       <c r="V4">
-        <v>114.3743526856826</v>
+        <v>95.75561993248576</v>
       </c>
       <c r="W4">
-        <v>813.7273703893418</v>
+        <v>810.1766092808951</v>
       </c>
       <c r="X4">
         <v>1046.184794729619</v>
@@ -859,7 +859,7 @@
         <v>694.2375032150508</v>
       </c>
       <c r="Z4">
-        <v>1.172116698710351</v>
+        <v>1.167002078581068</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -882,13 +882,13 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>366.1514691989075</v>
+        <v>376.3620245090066</v>
       </c>
       <c r="H5">
-        <v>147.0138423754196</v>
+        <v>149.3900181571482</v>
       </c>
       <c r="I5">
-        <v>219.1376268234879</v>
+        <v>226.9720063518584</v>
       </c>
       <c r="J5">
         <v>0.1</v>
@@ -903,7 +903,7 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.4996987621824861</v>
+        <v>0.517563470354889</v>
       </c>
       <c r="O5">
         <v>556.9758092718383</v>
@@ -921,16 +921,16 @@
         <v>4.702743935877724</v>
       </c>
       <c r="T5">
-        <v>2.490591792464621</v>
+        <v>2.519325113898166</v>
       </c>
       <c r="U5">
-        <v>0.9125203498946072</v>
+        <v>0.9239910537101368</v>
       </c>
       <c r="V5">
-        <v>84.98450393971939</v>
+        <v>88.93696606105854</v>
       </c>
       <c r="W5">
-        <v>814.3668073158535</v>
+        <v>806.5324277874829</v>
       </c>
       <c r="X5">
         <v>1033.504434139341</v>
@@ -939,7 +939,7 @@
         <v>594.9649711509169</v>
       </c>
       <c r="Z5">
-        <v>1.368764291686819</v>
+        <v>1.355596492054489</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -962,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>255.4798720191672</v>
+        <v>438.8854537525846</v>
       </c>
       <c r="H6">
-        <v>109.4469849942014</v>
+        <v>216.5789923262475</v>
       </c>
       <c r="I6">
-        <v>146.0328870249658</v>
+        <v>222.3064614263372</v>
       </c>
       <c r="J6">
         <v>0.1</v>
@@ -983,7 +983,7 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.3061424579439901</v>
+        <v>0.4660419163407664</v>
       </c>
       <c r="O6">
         <v>563.3232989669328</v>
@@ -1001,16 +1001,16 @@
         <v>6.526463496453893</v>
       </c>
       <c r="T6">
-        <v>2.334279670040273</v>
+        <v>2.026445173830443</v>
       </c>
       <c r="U6">
-        <v>0.8477033510391586</v>
+        <v>0.7062831121090631</v>
       </c>
       <c r="V6">
-        <v>53.25431108424871</v>
+        <v>69.34037670871021</v>
       </c>
       <c r="W6">
-        <v>916.4289728491391</v>
+        <v>840.1553984477678</v>
       </c>
       <c r="X6">
         <v>1062.461859874105</v>
@@ -1019,7 +1019,7 @@
         <v>585.452274187421</v>
       </c>
       <c r="Z6">
-        <v>1.565335063598647</v>
+        <v>1.435053608108128</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1042,13 +1042,13 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>457.8683052805233</v>
+        <v>572.485287239364</v>
       </c>
       <c r="H7">
-        <v>118.4157943294894</v>
+        <v>155.6103311304925</v>
       </c>
       <c r="I7">
-        <v>339.4525109510338</v>
+        <v>416.8749561088715</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -1063,10 +1063,10 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.681100475055768</v>
+        <v>0.8364461050799601</v>
       </c>
       <c r="O7">
-        <v>537.297922507285</v>
+        <v>537.2979225072849</v>
       </c>
       <c r="P7">
         <v>38.90961801632167</v>
@@ -1075,22 +1075,22 @@
         <v>2.625311261345743</v>
       </c>
       <c r="R7">
-        <v>396.2384461380527</v>
+        <v>396.2384461380526</v>
       </c>
       <c r="S7">
-        <v>13.80887168519365</v>
+        <v>13.80887168519364</v>
       </c>
       <c r="T7">
-        <v>3.866615157826957</v>
+        <v>3.678967090940037</v>
       </c>
       <c r="U7">
-        <v>1.352379488103832</v>
+        <v>1.302632030972555</v>
       </c>
       <c r="V7">
-        <v>179.3094196323103</v>
+        <v>214.1719544280461</v>
       </c>
       <c r="W7">
-        <v>736.8008511028331</v>
+        <v>659.3784059449956</v>
       </c>
       <c r="X7">
         <v>1076.253362053867</v>
@@ -1099,7 +1099,7 @@
         <v>577.8650575629038</v>
       </c>
       <c r="Z7">
-        <v>1.27503963331894</v>
+        <v>1.141059486666087</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1122,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>379.9587478395171</v>
+        <v>487.236545423294</v>
       </c>
       <c r="H8">
-        <v>61.97773483956264</v>
+        <v>199.9567516433124</v>
       </c>
       <c r="I8">
-        <v>317.9810129999545</v>
+        <v>287.2797937799817</v>
       </c>
       <c r="J8">
         <v>0.1</v>
@@ -1143,34 +1143,34 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.6373464603696988</v>
+        <v>0.5758103541277622</v>
       </c>
       <c r="O8">
-        <v>535.4869833518909</v>
+        <v>535.4869833518908</v>
       </c>
       <c r="P8">
         <v>36.57307581170198</v>
       </c>
       <c r="Q8">
-        <v>2.683864245990122</v>
+        <v>2.683864245990121</v>
       </c>
       <c r="R8">
-        <v>400.7567370032758</v>
+        <v>400.7567370032757</v>
       </c>
       <c r="S8">
         <v>14.64156271976872</v>
       </c>
       <c r="T8">
-        <v>6.130568482747705</v>
+        <v>2.436709645555946</v>
       </c>
       <c r="U8">
-        <v>1.813287483453734</v>
+        <v>0.8906486233330759</v>
       </c>
       <c r="V8">
-        <v>205.5975621625611</v>
+        <v>109.1885882027117</v>
       </c>
       <c r="W8">
-        <v>758.9114037734568</v>
+        <v>789.6126229934296</v>
       </c>
       <c r="X8">
         <v>1076.892416773411</v>
@@ -1179,7 +1179,7 @@
         <v>577.9785092332224</v>
       </c>
       <c r="Z8">
-        <v>1.313044328897747</v>
+        <v>1.366162600130189</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1202,13 +1202,13 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>341.8962821454204</v>
+        <v>468.662763672174</v>
       </c>
       <c r="H9">
-        <v>99.17866596493252</v>
+        <v>180.3834355010191</v>
       </c>
       <c r="I9">
-        <v>242.7176161804879</v>
+        <v>288.279328171155</v>
       </c>
       <c r="J9">
         <v>0.1</v>
@@ -1223,7 +1223,7 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.6865292238915686</v>
+        <v>0.8154009855063665</v>
       </c>
       <c r="O9">
         <v>524.6424153127471</v>
@@ -1241,16 +1241,16 @@
         <v>3.066302011370536</v>
       </c>
       <c r="T9">
-        <v>3.447276476438065</v>
+        <v>2.598147453897043</v>
       </c>
       <c r="U9">
-        <v>1.237584492162192</v>
+        <v>0.9547986733341287</v>
       </c>
       <c r="V9">
-        <v>119.9756372289532</v>
+        <v>116.0494632633296</v>
       </c>
       <c r="W9">
-        <v>810.4293029844958</v>
+        <v>764.8675909938288</v>
       </c>
       <c r="X9">
         <v>1053.146919164984</v>
@@ -1259,7 +1259,7 @@
         <v>699.6038976390377</v>
       </c>
       <c r="Z9">
-        <v>1.158411646532362</v>
+        <v>1.093286634873015</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1282,13 +1282,13 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>259.9214283429653</v>
+        <v>382.1259978286265</v>
       </c>
       <c r="H10">
-        <v>86.77862540574952</v>
+        <v>157.0435117205479</v>
       </c>
       <c r="I10">
-        <v>173.1428029372158</v>
+        <v>225.0824861080787</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -1303,7 +1303,7 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.4751728145053852</v>
+        <v>0.6177159928422078</v>
       </c>
       <c r="O10">
         <v>428.904737017038</v>
@@ -1312,25 +1312,25 @@
         <v>64.52614116356334</v>
       </c>
       <c r="Q10">
-        <v>1.894164404982344</v>
+        <v>1.894164404982343</v>
       </c>
       <c r="R10">
         <v>242.155476070587</v>
       </c>
       <c r="S10">
-        <v>6.646991890152456</v>
+        <v>6.646991890152455</v>
       </c>
       <c r="T10">
-        <v>2.995224078828797</v>
+        <v>2.433249190890504</v>
       </c>
       <c r="U10">
-        <v>1.09701904640771</v>
+        <v>0.8892274798022712</v>
       </c>
       <c r="V10">
-        <v>77.9449980460286</v>
+        <v>85.43507996151743</v>
       </c>
       <c r="W10">
-        <v>807.2057408289403</v>
+        <v>755.2660576580774</v>
       </c>
       <c r="X10">
         <v>980.3485437661561</v>
@@ -1339,7 +1339,7 @@
         <v>615.9699479126815</v>
       </c>
       <c r="Z10">
-        <v>1.310462861969636</v>
+        <v>1.226141080774191</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1362,13 +1362,13 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>253.6099887578088</v>
+        <v>437.7169525186301</v>
       </c>
       <c r="H11">
-        <v>105.1443999255958</v>
+        <v>127.6867643756472</v>
       </c>
       <c r="I11">
-        <v>148.465588832213</v>
+        <v>310.0301881429829</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -1383,10 +1383,10 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.3436293011164701</v>
+        <v>0.7175767645186857</v>
       </c>
       <c r="O11">
-        <v>506.1946670291918</v>
+        <v>506.1946670291917</v>
       </c>
       <c r="P11">
         <v>74.14306854838594</v>
@@ -1395,22 +1395,22 @@
         <v>1.92092472731819</v>
       </c>
       <c r="R11">
-        <v>289.6283447469638</v>
+        <v>289.6283447469636</v>
       </c>
       <c r="S11">
-        <v>6.827268913193794</v>
+        <v>6.827268913193793</v>
       </c>
       <c r="T11">
-        <v>2.412016131503656</v>
+        <v>3.428052661988455</v>
       </c>
       <c r="U11">
-        <v>0.8804629668623322</v>
+        <v>1.231992362924552</v>
       </c>
       <c r="V11">
-        <v>55.88983852476339</v>
+        <v>152.7210695856388</v>
       </c>
       <c r="W11">
-        <v>941.5276155112784</v>
+        <v>779.9630162005086</v>
       </c>
       <c r="X11">
         <v>1089.993204343491</v>
@@ -1419,7 +1419,7 @@
         <v>657.9416058626857</v>
       </c>
       <c r="Z11">
-        <v>1.431020028406256</v>
+        <v>1.185459331421715</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1442,13 +1442,13 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>233.1015327585146</v>
+        <v>392.8547860912615</v>
       </c>
       <c r="H12">
-        <v>23.26281294387793</v>
+        <v>163.6398834081155</v>
       </c>
       <c r="I12">
-        <v>209.8387198146367</v>
+        <v>229.214902683146</v>
       </c>
       <c r="J12">
         <v>0.1</v>
@@ -1463,10 +1463,10 @@
         <v>0.1</v>
       </c>
       <c r="N12">
-        <v>0.6149901089716939</v>
+        <v>0.6717773445414033</v>
       </c>
       <c r="O12">
-        <v>419.67842183392</v>
+        <v>419.6784218339201</v>
       </c>
       <c r="P12">
         <v>78.47176378619696</v>
@@ -1478,19 +1478,19 @@
         <v>209.6291365457212</v>
       </c>
       <c r="S12">
-        <v>5.348145646087041</v>
+        <v>5.348145646087042</v>
       </c>
       <c r="T12">
-        <v>10.0203502182164</v>
+        <v>2.400727609365789</v>
       </c>
       <c r="U12">
-        <v>2.30461804696372</v>
+        <v>0.875771861976068</v>
       </c>
       <c r="V12">
-        <v>156.2268212810344</v>
+        <v>85.90369729727408</v>
       </c>
       <c r="W12">
-        <v>766.626825568444</v>
+        <v>747.2506426999348</v>
       </c>
       <c r="X12">
         <v>976.4655453830808</v>
@@ -1499,7 +1499,7 @@
         <v>635.2588873353577</v>
       </c>
       <c r="Z12">
-        <v>1.206794333541903</v>
+        <v>1.176293094984212</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1522,13 +1522,13 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>420.0985737830102</v>
+        <v>312.1506915296491</v>
       </c>
       <c r="H13">
-        <v>144.711662492223</v>
+        <v>122.3595534020627</v>
       </c>
       <c r="I13">
-        <v>275.3869112907872</v>
+        <v>189.7911381275864</v>
       </c>
       <c r="J13">
         <v>0.1</v>
@@ -1543,34 +1543,34 @@
         <v>0.1</v>
       </c>
       <c r="N13">
-        <v>0.5724089603097302</v>
+        <v>0.3944927794222532</v>
       </c>
       <c r="O13">
-        <v>539.9925089263924</v>
+        <v>539.9925089263921</v>
       </c>
       <c r="P13">
         <v>58.89083095514691</v>
       </c>
       <c r="Q13">
-        <v>2.215869859953769</v>
+        <v>2.215869859953768</v>
       </c>
       <c r="R13">
-        <v>350.607260630103</v>
+        <v>350.6072606301028</v>
       </c>
       <c r="S13">
-        <v>9.169381721539427</v>
+        <v>9.169381721539423</v>
       </c>
       <c r="T13">
-        <v>2.903004267576477</v>
+        <v>2.551093746672557</v>
       </c>
       <c r="U13">
-        <v>1.065746155098759</v>
+        <v>0.9365221874740812</v>
       </c>
       <c r="V13">
-        <v>121.1610133917512</v>
+        <v>75.19870151713492</v>
       </c>
       <c r="W13">
-        <v>831.2385361830914</v>
+        <v>916.8343093462921</v>
       </c>
       <c r="X13">
         <v>1106.625447473878</v>
@@ -1579,7 +1579,7 @@
         <v>625.5237695026332</v>
       </c>
       <c r="Z13">
-        <v>1.328868025021697</v>
+        <v>1.465706587097859</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1602,13 +1602,13 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>281.0816899512998</v>
+        <v>419.3206126063893</v>
       </c>
       <c r="H14">
-        <v>64.04557208716217</v>
+        <v>145.4279597065121</v>
       </c>
       <c r="I14">
-        <v>217.0361178641376</v>
+        <v>273.8926528998772</v>
       </c>
       <c r="J14">
         <v>0.1</v>
@@ -1623,10 +1623,10 @@
         <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.5135162590898846</v>
+        <v>0.6480411274099253</v>
       </c>
       <c r="O14">
-        <v>499.0476433600485</v>
+        <v>499.0476433600487</v>
       </c>
       <c r="P14">
         <v>76.4006209487325</v>
@@ -1635,22 +1635,22 @@
         <v>1.876710745128607</v>
       </c>
       <c r="R14">
-        <v>279.265156142332</v>
+        <v>279.2651561423322</v>
       </c>
       <c r="S14">
-        <v>6.531984127392461</v>
+        <v>6.531984127392462</v>
       </c>
       <c r="T14">
-        <v>4.388776316476095</v>
+        <v>2.883356222920403</v>
       </c>
       <c r="U14">
-        <v>1.479050444831395</v>
+        <v>1.058954970829279</v>
       </c>
       <c r="V14">
-        <v>122.3094859791392</v>
+        <v>119.8909920711062</v>
       </c>
       <c r="W14">
-        <v>832.0203322448626</v>
+        <v>775.163797209123</v>
       </c>
       <c r="X14">
         <v>1049.056450109</v>
@@ -1659,7 +1659,7 @@
         <v>626.4094276976842</v>
       </c>
       <c r="Z14">
-        <v>1.328237244613135</v>
+        <v>1.237471473023918</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1682,13 +1682,13 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>438.4088448291864</v>
+        <v>310.7294057363576</v>
       </c>
       <c r="H15">
-        <v>93.8195082231245</v>
+        <v>107.5620415418793</v>
       </c>
       <c r="I15">
-        <v>344.5893366060619</v>
+        <v>203.1673641944784</v>
       </c>
       <c r="J15">
         <v>0.1</v>
@@ -1703,7 +1703,7 @@
         <v>0.1</v>
       </c>
       <c r="N15">
-        <v>0.7957397289367171</v>
+        <v>0.469162351061729</v>
       </c>
       <c r="O15">
         <v>504.0151765783277</v>
@@ -1721,16 +1721,16 @@
         <v>7.10156527807991</v>
       </c>
       <c r="T15">
-        <v>4.672896427750918</v>
+        <v>2.888838862503136</v>
       </c>
       <c r="U15">
-        <v>1.541779099498968</v>
+        <v>1.060854643709487</v>
       </c>
       <c r="V15">
-        <v>199.9403797023769</v>
+        <v>89.05967293790295</v>
       </c>
       <c r="W15">
-        <v>777.6248327020705</v>
+        <v>919.046805113654</v>
       </c>
       <c r="X15">
         <v>1122.214169308132</v>
@@ -1739,7 +1739,7 @@
         <v>689.1713990715516</v>
       </c>
       <c r="Z15">
-        <v>1.128347510865487</v>
+        <v>1.333553316855269</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1762,13 +1762,13 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>258.4234907495667</v>
+        <v>468.1834298240508</v>
       </c>
       <c r="H16">
-        <v>109.622839518144</v>
+        <v>207.5114767601353</v>
       </c>
       <c r="I16">
-        <v>148.8006512314227</v>
+        <v>260.6719530639155</v>
       </c>
       <c r="J16">
         <v>0.1</v>
@@ -1783,7 +1783,7 @@
         <v>0.1</v>
       </c>
       <c r="N16">
-        <v>0.3426825078190158</v>
+        <v>0.6003180621507906</v>
       </c>
       <c r="O16">
         <v>517.9565270564365</v>
@@ -1801,16 +1801,16 @@
         <v>6.185777549560298</v>
       </c>
       <c r="T16">
-        <v>2.35738730984791</v>
+        <v>2.256180897238897</v>
       </c>
       <c r="U16">
-        <v>0.8575539336822051</v>
+        <v>0.8136735153674913</v>
       </c>
       <c r="V16">
-        <v>54.79315398122522</v>
+        <v>91.82536028939666</v>
       </c>
       <c r="W16">
-        <v>854.0776927263616</v>
+        <v>742.206390893869</v>
       </c>
       <c r="X16">
         <v>1002.878343957784</v>
@@ -1819,7 +1819,7 @@
         <v>568.6552720582108</v>
       </c>
       <c r="Z16">
-        <v>1.501925216722397</v>
+        <v>1.305195656073848</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1842,13 +1842,13 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>378.7602068450716</v>
+        <v>408.8663621180954</v>
       </c>
       <c r="H17">
-        <v>104.1703625169231</v>
+        <v>100.4263767744269</v>
       </c>
       <c r="I17">
-        <v>274.5898443281485</v>
+        <v>308.4399853436685</v>
       </c>
       <c r="J17">
         <v>0.1</v>
@@ -1863,34 +1863,34 @@
         <v>0.1</v>
       </c>
       <c r="N17">
-        <v>0.5821394644542055</v>
+        <v>0.6539028722040022</v>
       </c>
       <c r="O17">
-        <v>525.5309912556434</v>
+        <v>525.5309912556432</v>
       </c>
       <c r="P17">
         <v>53.84016612734731</v>
       </c>
       <c r="Q17">
-        <v>2.278389392468205</v>
+        <v>2.278389392468204</v>
       </c>
       <c r="R17">
-        <v>349.021961735022</v>
+        <v>349.0219617350219</v>
       </c>
       <c r="S17">
-        <v>9.760946688251538</v>
+        <v>9.760946688251536</v>
       </c>
       <c r="T17">
-        <v>3.635968980942538</v>
+        <v>4.07130452427326</v>
       </c>
       <c r="U17">
-        <v>1.290875645184931</v>
+        <v>1.403963470032784</v>
       </c>
       <c r="V17">
-        <v>140.1188604049673</v>
+        <v>167.4450209246243</v>
       </c>
       <c r="W17">
-        <v>811.1398157320427</v>
+        <v>777.2896747165228</v>
       </c>
       <c r="X17">
         <v>1085.729660060191</v>
@@ -1899,7 +1899,7 @@
         <v>614.0388349318953</v>
       </c>
       <c r="Z17">
-        <v>1.320991066993358</v>
+        <v>1.265864030900805</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1922,13 +1922,13 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>370.8837881857149</v>
+        <v>335.2255771097416</v>
       </c>
       <c r="H18">
-        <v>158.7632314352765</v>
+        <v>101.6293243353096</v>
       </c>
       <c r="I18">
-        <v>212.1205567504385</v>
+        <v>233.596252774432</v>
       </c>
       <c r="J18">
         <v>0.1</v>
@@ -1943,7 +1943,7 @@
         <v>0.1</v>
       </c>
       <c r="N18">
-        <v>0.5089711582550535</v>
+        <v>0.5605008640370596</v>
       </c>
       <c r="O18">
         <v>503.6323301907561</v>
@@ -1961,16 +1961,16 @@
         <v>5.797612578350715</v>
       </c>
       <c r="T18">
-        <v>2.336081124280431</v>
+        <v>3.29851230737025</v>
       </c>
       <c r="U18">
-        <v>0.8484747922227561</v>
+        <v>1.193471550875965</v>
       </c>
       <c r="V18">
-        <v>77.41395694577895</v>
+        <v>112.3045454454936</v>
       </c>
       <c r="W18">
-        <v>848.8012171417456</v>
+        <v>827.325521117752</v>
       </c>
       <c r="X18">
         <v>1060.921773892184</v>
@@ -1979,7 +1979,7 @@
         <v>644.1583614472268</v>
       </c>
       <c r="Z18">
-        <v>1.317690288510342</v>
+        <v>1.284351132629878</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2002,13 +2002,13 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>201.1018929345836</v>
+        <v>491.2552440710295</v>
       </c>
       <c r="H19">
-        <v>72.18423984921907</v>
+        <v>231.29580805971</v>
       </c>
       <c r="I19">
-        <v>128.9176530853645</v>
+        <v>259.9594360113196</v>
       </c>
       <c r="J19">
         <v>0.1</v>
@@ -2023,7 +2023,7 @@
         <v>0.1</v>
       </c>
       <c r="N19">
-        <v>0.3113807923741289</v>
+        <v>0.6278920941629044</v>
       </c>
       <c r="O19">
         <v>506.8646913088755</v>
@@ -2038,19 +2038,19 @@
         <v>256.4320089546447</v>
       </c>
       <c r="S19">
-        <v>5.459232853619783</v>
+        <v>5.459232853619784</v>
       </c>
       <c r="T19">
-        <v>2.78595290820617</v>
+        <v>2.123926275154152</v>
       </c>
       <c r="U19">
-        <v>1.024589972201896</v>
+        <v>0.7532663923978721</v>
       </c>
       <c r="V19">
-        <v>54.95840478483817</v>
+        <v>85.73207709743116</v>
       </c>
       <c r="W19">
-        <v>959.8698301446768</v>
+        <v>828.8280472187217</v>
       </c>
       <c r="X19">
         <v>1088.787483230041</v>
@@ -2059,7 +2059,7 @@
         <v>674.7681980248449</v>
       </c>
       <c r="Z19">
-        <v>1.422517885333616</v>
+        <v>1.228315219426219</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2082,13 +2082,13 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>554.9774978496172</v>
+        <v>331.5548073651084</v>
       </c>
       <c r="H20">
-        <v>228.5184134505571</v>
+        <v>145.8399753297261</v>
       </c>
       <c r="I20">
-        <v>326.45908439906</v>
+        <v>185.7148320353823</v>
       </c>
       <c r="J20">
         <v>0.1</v>
@@ -2103,7 +2103,7 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.7604255203160784</v>
+        <v>0.4325880471081948</v>
       </c>
       <c r="O20">
         <v>504.9803370094003</v>
@@ -2121,16 +2121,16 @@
         <v>6.673518518421911</v>
       </c>
       <c r="T20">
-        <v>2.428589843022403</v>
+        <v>2.273415136114115</v>
       </c>
       <c r="U20">
-        <v>0.8873107773931459</v>
+        <v>0.8212831661677759</v>
       </c>
       <c r="V20">
-        <v>123.6922333115978</v>
+        <v>65.9389153427546</v>
       </c>
       <c r="W20">
-        <v>729.5080161228414</v>
+        <v>870.252268486519</v>
       </c>
       <c r="X20">
         <v>1055.967100521901</v>
@@ -2139,7 +2139,7 @@
         <v>626.6560428612324</v>
       </c>
       <c r="Z20">
-        <v>1.164128271694309</v>
+        <v>1.388723971308179</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2162,13 +2162,13 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>515.5123145308813</v>
+        <v>396.7184570730367</v>
       </c>
       <c r="H21">
-        <v>169.4791992613281</v>
+        <v>149.707856239993</v>
       </c>
       <c r="I21">
-        <v>346.0331152695532</v>
+        <v>247.0106008330437</v>
       </c>
       <c r="J21">
         <v>0.1</v>
@@ -2183,7 +2183,7 @@
         <v>0.1</v>
       </c>
       <c r="N21">
-        <v>0.880842599541879</v>
+        <v>0.6287764093985369</v>
       </c>
       <c r="O21">
         <v>465.0934976583241</v>
@@ -2201,16 +2201,16 @@
         <v>6.43726280406137</v>
       </c>
       <c r="T21">
-        <v>3.041743864602453</v>
+        <v>2.649950824471543</v>
       </c>
       <c r="U21">
-        <v>1.112430990621647</v>
+        <v>0.97454108302276</v>
       </c>
       <c r="V21">
-        <v>157.4992017455104</v>
+        <v>101.1141444759053</v>
       </c>
       <c r="W21">
-        <v>642.0033222773338</v>
+        <v>741.0258367138433</v>
       </c>
       <c r="X21">
         <v>988.0364375468871</v>
@@ -2219,7 +2219,7 @@
         <v>595.1931356340108</v>
       </c>
       <c r="Z21">
-        <v>1.078647053940667</v>
+        <v>1.245017444504781</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>390.5205842178322</v>
+        <v>340.7534014482628</v>
       </c>
       <c r="H22">
-        <v>19.90733113705517</v>
+        <v>29.05429525990111</v>
       </c>
       <c r="I22">
-        <v>370.613253080777</v>
+        <v>311.6991061883617</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -2263,7 +2263,7 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.5552265714506485</v>
+        <v>0.4669655621178652</v>
       </c>
       <c r="O22">
         <v>688.4041335709715</v>
@@ -2281,16 +2281,16 @@
         <v>32.93011228277943</v>
       </c>
       <c r="T22">
-        <v>19.61692310884023</v>
+        <v>11.72815924117592</v>
       </c>
       <c r="U22">
-        <v>2.97639261762088</v>
+        <v>2.461992722915002</v>
       </c>
       <c r="V22">
-        <v>311.3612196479117</v>
+        <v>240.1676426890613</v>
       </c>
       <c r="W22">
-        <v>720.9804067825087</v>
+        <v>779.8945536749239</v>
       </c>
       <c r="X22">
         <v>1091.593659863286</v>
@@ -2299,7 +2299,7 @@
         <v>424.0945304313667</v>
       </c>
       <c r="Z22">
-        <v>1.70004646381354</v>
+        <v>1.838963951932264</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2322,13 +2322,13 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>89.77773661216257</v>
+        <v>250.3438574779843</v>
       </c>
       <c r="H23">
-        <v>16.40107126590938</v>
+        <v>19.91312385371694</v>
       </c>
       <c r="I23">
-        <v>73.37666534625319</v>
+        <v>230.4307336242673</v>
       </c>
       <c r="J23">
         <v>0.1</v>
@@ -2343,7 +2343,7 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.1380168389211419</v>
+        <v>0.4334255487766591</v>
       </c>
       <c r="O23">
         <v>538.5571331676412</v>
@@ -2361,16 +2361,16 @@
         <v>77.9722103258636</v>
       </c>
       <c r="T23">
-        <v>5.473894671671297</v>
+        <v>12.57180236094678</v>
       </c>
       <c r="U23">
-        <v>1.69999036886802</v>
+        <v>2.531456398237999</v>
       </c>
       <c r="V23">
-        <v>45.49500215508922</v>
+        <v>180.0215288358699</v>
       </c>
       <c r="W23">
-        <v>863.0806113771984</v>
+        <v>706.0265430991842</v>
       </c>
       <c r="X23">
         <v>936.4572767234515</v>
@@ -2379,7 +2379,7 @@
         <v>404.8071830114942</v>
       </c>
       <c r="Z23">
-        <v>2.132078301962077</v>
+        <v>1.744105768694171</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2402,13 +2402,13 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>525.3994978036181</v>
+        <v>282.0079282822117</v>
       </c>
       <c r="H24">
-        <v>18.89378175305977</v>
+        <v>5.294579588166847</v>
       </c>
       <c r="I24">
-        <v>506.5057160505584</v>
+        <v>276.7133486940448</v>
       </c>
       <c r="J24">
         <v>0.1</v>
@@ -2423,10 +2423,10 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.8320532397279315</v>
+        <v>0.4545659228727493</v>
       </c>
       <c r="O24">
-        <v>654.8531363540125</v>
+        <v>654.8531363540123</v>
       </c>
       <c r="P24">
         <v>46.11118107218711</v>
@@ -2435,22 +2435,22 @@
         <v>2.653355531066012</v>
       </c>
       <c r="R24">
-        <v>486.3925979399513</v>
+        <v>486.3925979399511</v>
       </c>
       <c r="S24">
         <v>14.2016127352895</v>
       </c>
       <c r="T24">
-        <v>27.8080642970554</v>
+        <v>53.26351669403309</v>
       </c>
       <c r="U24">
-        <v>3.325326061258653</v>
+        <v>3.975251607008705</v>
       </c>
       <c r="V24">
-        <v>443.6777311913755</v>
+        <v>255.6660626777491</v>
       </c>
       <c r="W24">
-        <v>580.0118878588315</v>
+        <v>809.8042552153451</v>
       </c>
       <c r="X24">
         <v>1086.51760390939</v>
@@ -2459,7 +2459,7 @@
         <v>477.7756486275646</v>
       </c>
       <c r="Z24">
-        <v>1.213983779886953</v>
+        <v>1.694946692117001</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2482,13 +2482,13 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>142.3785007010846</v>
+        <v>130.0971125810535</v>
       </c>
       <c r="H25">
-        <v>33.74267013423153</v>
+        <v>18.39888291039464</v>
       </c>
       <c r="I25">
-        <v>108.6358305668531</v>
+        <v>111.6982296706588</v>
       </c>
       <c r="J25">
         <v>0.1</v>
@@ -2503,10 +2503,10 @@
         <v>0.1</v>
       </c>
       <c r="N25">
-        <v>0.2061012695790481</v>
+        <v>0.2119111790716964</v>
       </c>
       <c r="O25">
-        <v>565.1724489516334</v>
+        <v>565.1724489516336</v>
       </c>
       <c r="P25">
         <v>38.07317009354327</v>
@@ -2515,22 +2515,22 @@
         <v>2.697621066910294</v>
       </c>
       <c r="R25">
-        <v>424.3922931296889</v>
+        <v>424.392293129689</v>
       </c>
       <c r="S25">
-        <v>14.84437590993978</v>
+        <v>14.84437590993979</v>
       </c>
       <c r="T25">
-        <v>4.219538647495575</v>
+        <v>7.070924534638661</v>
       </c>
       <c r="U25">
-        <v>1.439725796833466</v>
+        <v>1.955991240049053</v>
       </c>
       <c r="V25">
-        <v>60.05563792055784</v>
+        <v>75.71017587123868</v>
       </c>
       <c r="W25">
-        <v>905.666960694839</v>
+        <v>902.6045615910332</v>
       </c>
       <c r="X25">
         <v>1014.302791261692</v>
@@ -2539,7 +2539,7 @@
         <v>487.2035124036017</v>
       </c>
       <c r="Z25">
-        <v>1.858908931560781</v>
+        <v>1.852623264430227</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2562,13 +2562,13 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>484.8982031737968</v>
+        <v>415.8470834011787</v>
       </c>
       <c r="H26">
-        <v>26.49911508501402</v>
+        <v>43.59136400547621</v>
       </c>
       <c r="I26">
-        <v>458.3990880887828</v>
+        <v>372.2557193957025</v>
       </c>
       <c r="J26">
         <v>0.1</v>
@@ -2583,34 +2583,34 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>0.7279279870518534</v>
+        <v>0.5911341525962432</v>
       </c>
       <c r="O26">
-        <v>654.1143554917093</v>
+        <v>654.114355491709</v>
       </c>
       <c r="P26">
         <v>24.38298612188556</v>
       </c>
       <c r="Q26">
-        <v>3.289396592670973</v>
+        <v>3.289396592670972</v>
       </c>
       <c r="R26">
-        <v>549.5260579013498</v>
+        <v>549.5260579013495</v>
       </c>
       <c r="S26">
-        <v>26.82667136100252</v>
+        <v>26.82667136100251</v>
       </c>
       <c r="T26">
-        <v>18.2986564501552</v>
+        <v>9.539666695195349</v>
       </c>
       <c r="U26">
-        <v>2.906827639127834</v>
+        <v>2.255458547239312</v>
       </c>
       <c r="V26">
-        <v>381.3707279472347</v>
+        <v>273.9372048637311</v>
       </c>
       <c r="W26">
-        <v>649.4248430435595</v>
+        <v>735.5682117366398</v>
       </c>
       <c r="X26">
         <v>1107.823931132342</v>
@@ -2619,7 +2619,7 @@
         <v>478.0925617625187</v>
       </c>
       <c r="Z26">
-        <v>1.358366339458228</v>
+        <v>1.53854770094084</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2642,13 +2642,13 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>107.1359744983911</v>
+        <v>408.7001176638178</v>
       </c>
       <c r="H27">
-        <v>7.444377421842111</v>
+        <v>8.052271486016584</v>
       </c>
       <c r="I27">
-        <v>99.69159707654897</v>
+        <v>400.6478461778012</v>
       </c>
       <c r="J27">
         <v>0.1</v>
@@ -2663,10 +2663,10 @@
         <v>0.1</v>
       </c>
       <c r="N27">
-        <v>0.1490169542831853</v>
+        <v>0.598880181763869</v>
       </c>
       <c r="O27">
-        <v>688.3324197142417</v>
+        <v>688.332419714242</v>
       </c>
       <c r="P27">
         <v>19.33742141962198</v>
@@ -2675,22 +2675,22 @@
         <v>3.572229737170086</v>
       </c>
       <c r="R27">
-        <v>599.9172864592564</v>
+        <v>599.9172864592566</v>
       </c>
       <c r="S27">
-        <v>35.59587417460842</v>
+        <v>35.59587417460843</v>
       </c>
       <c r="T27">
-        <v>14.39152912694213</v>
+        <v>50.75587905519061</v>
       </c>
       <c r="U27">
-        <v>2.666639778418592</v>
+        <v>3.927027454664594</v>
       </c>
       <c r="V27">
-        <v>79.84012411790356</v>
+        <v>369.0263549798012</v>
       </c>
       <c r="W27">
-        <v>985.5288301906169</v>
+        <v>684.5725810893647</v>
       </c>
       <c r="X27">
         <v>1085.220427267166</v>
@@ -2699,7 +2699,7 @@
         <v>416.2254289725461</v>
       </c>
       <c r="Z27">
-        <v>2.367776597944528</v>
+        <v>1.644715900177542</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2722,13 +2722,13 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>708.2910640848048</v>
+        <v>504.3919063663732</v>
       </c>
       <c r="H28">
-        <v>33.41280301804778</v>
+        <v>43.73031198321226</v>
       </c>
       <c r="I28">
-        <v>674.8782610667571</v>
+        <v>460.6615943831609</v>
       </c>
       <c r="J28">
         <v>0.1</v>
@@ -2743,10 +2743,10 @@
         <v>0.1</v>
       </c>
       <c r="N28">
-        <v>0.9053956973644658</v>
+        <v>0.6180092759786082</v>
       </c>
       <c r="O28">
-        <v>779.9290081588408</v>
+        <v>779.9290081588406</v>
       </c>
       <c r="P28">
         <v>34.53308565636632</v>
@@ -2755,22 +2755,22 @@
         <v>3.117285031341922</v>
       </c>
       <c r="R28">
-        <v>637.7464514998353</v>
+        <v>637.7464514998351</v>
       </c>
       <c r="S28">
-        <v>22.58497882059542</v>
+        <v>22.58497882059541</v>
       </c>
       <c r="T28">
-        <v>21.19819350990172</v>
+        <v>11.5341483628108</v>
       </c>
       <c r="U28">
-        <v>3.053915966250146</v>
+        <v>2.445312058194487</v>
       </c>
       <c r="V28">
-        <v>572.8383684527699</v>
+        <v>353.7273351820051</v>
       </c>
       <c r="W28">
-        <v>526.2461501553672</v>
+        <v>740.4628168389634</v>
       </c>
       <c r="X28">
         <v>1201.124411222124</v>
@@ -2779,7 +2779,7 @@
         <v>455.7284887196499</v>
       </c>
       <c r="Z28">
-        <v>1.154736127280157</v>
+        <v>1.624789398001566</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2802,13 +2802,13 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>333.4235581092454</v>
+        <v>219.6106889315807</v>
       </c>
       <c r="H29">
-        <v>26.82014541393346</v>
+        <v>28.42973331290669</v>
       </c>
       <c r="I29">
-        <v>306.6034126953119</v>
+        <v>191.180955618674</v>
       </c>
       <c r="J29">
         <v>0.1</v>
@@ -2823,7 +2823,7 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>0.6017730301328206</v>
+        <v>0.3752324279595238</v>
       </c>
       <c r="O29">
         <v>524.8087351725844</v>
@@ -2841,16 +2841,16 @@
         <v>34.28185258728094</v>
       </c>
       <c r="T29">
-        <v>12.43183260058042</v>
+        <v>7.724683397993067</v>
       </c>
       <c r="U29">
-        <v>2.520260328330357</v>
+        <v>2.044420837865371</v>
       </c>
       <c r="V29">
-        <v>239.009664208524</v>
+        <v>133.0586164188123</v>
       </c>
       <c r="W29">
-        <v>615.5403231298643</v>
+        <v>730.9627802065022</v>
       </c>
       <c r="X29">
         <v>922.1437358251762</v>
@@ -2859,7 +2859,7 @@
         <v>412.6436463518414</v>
       </c>
       <c r="Z29">
-        <v>1.491699505303961</v>
+        <v>1.771414116438971</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2882,13 +2882,13 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>341.7895945368053</v>
+        <v>247.1358962547452</v>
       </c>
       <c r="H30">
-        <v>31.4760667677538</v>
+        <v>28.80713491920351</v>
       </c>
       <c r="I30">
-        <v>310.3135277690515</v>
+        <v>218.3287613355417</v>
       </c>
       <c r="J30">
         <v>0.1</v>
@@ -2903,10 +2903,10 @@
         <v>0.1</v>
       </c>
       <c r="N30">
-        <v>0.642855458479792</v>
+        <v>0.452296865614386</v>
       </c>
       <c r="O30">
-        <v>524.6575727565481</v>
+        <v>524.6575727565482</v>
       </c>
       <c r="P30">
         <v>41.94637589921254</v>
@@ -2915,22 +2915,22 @@
         <v>2.52635376919962</v>
       </c>
       <c r="R30">
-        <v>376.7398120000959</v>
+        <v>376.739812000096</v>
       </c>
       <c r="S30">
         <v>12.50781650403313</v>
       </c>
       <c r="T30">
-        <v>10.8587136079835</v>
+        <v>8.578982149661771</v>
       </c>
       <c r="U30">
-        <v>2.384967855186216</v>
+        <v>2.149315275887156</v>
       </c>
       <c r="V30">
-        <v>235.2441203202636</v>
+        <v>156.4131461991552</v>
       </c>
       <c r="W30">
-        <v>744.5854812924397</v>
+        <v>836.5702477259495</v>
       </c>
       <c r="X30">
         <v>1054.899009061491</v>
@@ -2939,7 +2939,7 @@
         <v>572.1878122041556</v>
       </c>
       <c r="Z30">
-        <v>1.301295598073265</v>
+        <v>1.462055342464132</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2962,13 +2962,13 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>721.3861329653646</v>
+        <v>434.4500643415045</v>
       </c>
       <c r="H31">
-        <v>22.94874321226597</v>
+        <v>34.92830979579996</v>
       </c>
       <c r="I31">
-        <v>698.4373897530986</v>
+        <v>399.5217545457045</v>
       </c>
       <c r="J31">
         <v>0.1</v>
@@ -2983,7 +2983,7 @@
         <v>0.1</v>
       </c>
       <c r="N31">
-        <v>0.9696315303999831</v>
+        <v>0.5546508476947116</v>
       </c>
       <c r="O31">
         <v>724.8431737829848</v>
@@ -3001,16 +3001,16 @@
         <v>159.9740094966027</v>
       </c>
       <c r="T31">
-        <v>31.43466839525172</v>
+        <v>12.43833632034912</v>
       </c>
       <c r="U31">
-        <v>3.447911372876942</v>
+        <v>2.520783342061195</v>
       </c>
       <c r="V31">
-        <v>619.3121570382942</v>
+        <v>311.4750530460991</v>
       </c>
       <c r="W31">
-        <v>393.8538400993409</v>
+        <v>692.7694753067351</v>
       </c>
       <c r="X31">
         <v>1092.29122985244</v>
@@ -3019,7 +3019,7 @@
         <v>371.9790619251178</v>
       </c>
       <c r="Z31">
-        <v>1.058806477066246</v>
+        <v>1.862388360574432</v>
       </c>
     </row>
   </sheetData>

--- a/results/DeterministicUSM/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>557.3957175557402</v>
+        <v>568.9803812158399</v>
       </c>
       <c r="H2">
-        <v>199.8958885700265</v>
+        <v>160.750562786106</v>
       </c>
       <c r="I2">
-        <v>357.4998289857137</v>
+        <v>408.2298184297339</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>357.4998289857137</v>
+        <v>573.3888778517335</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.7119597784303268</v>
       </c>
       <c r="O2">
-        <v>557.3957175557402</v>
+        <v>794.2830386233179</v>
       </c>
       <c r="P2">
-        <v>199.8958885700265</v>
+        <v>220.8941607715842</v>
       </c>
       <c r="Q2">
-        <v>1.025478758264612</v>
+        <v>1.279756193276276</v>
       </c>
       <c r="R2">
-        <v>152.5108413927217</v>
+        <v>290.6982075457334</v>
       </c>
       <c r="S2">
-        <v>2.788430125017185</v>
+        <v>3.59576294750791</v>
       </c>
       <c r="T2">
-        <v>2.788430125017185</v>
+        <v>3.539523416617351</v>
       </c>
       <c r="U2">
-        <v>1.025478758264612</v>
+        <v>1.263992090008316</v>
       </c>
       <c r="V2">
-        <v>152.5108413927217</v>
+        <v>205.0423786037108</v>
       </c>
       <c r="W2">
-        <v>645.5089196677927</v>
+        <v>594.7789302237726</v>
       </c>
       <c r="X2">
         <v>1003.008748653506</v>
       </c>
       <c r="Y2">
-        <v>645.5089196677927</v>
+        <v>429.619870801773</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>1.384430680810395</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>483.6791066880775</v>
+        <v>555.9250341728767</v>
       </c>
       <c r="H3">
-        <v>214.5169211132398</v>
+        <v>197.8478420701329</v>
       </c>
       <c r="I3">
-        <v>269.1621855748377</v>
+        <v>358.0771921027439</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>452.3815582909228</v>
+        <v>714.2111156657595</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.5949892975118621</v>
+        <v>0.5013604300584966</v>
       </c>
       <c r="O3">
-        <v>528.7049157365504</v>
+        <v>882.905006376526</v>
       </c>
       <c r="P3">
-        <v>76.32335744562776</v>
+        <v>168.6938907107667</v>
       </c>
       <c r="Q3">
-        <v>1.935451443118261</v>
+        <v>1.655131839298548</v>
       </c>
       <c r="R3">
-        <v>304.6614059791516</v>
+        <v>435.0004860552197</v>
       </c>
       <c r="S3">
-        <v>6.927170573086964</v>
+        <v>5.233769893245905</v>
       </c>
       <c r="T3">
-        <v>2.254736382463515</v>
+        <v>2.809861499403229</v>
       </c>
       <c r="U3">
-        <v>0.813033062557036</v>
+        <v>1.033135193662336</v>
       </c>
       <c r="V3">
-        <v>94.75283623183424</v>
+        <v>153.6736234699419</v>
       </c>
       <c r="W3">
-        <v>757.019874423273</v>
+        <v>668.1048678953667</v>
       </c>
       <c r="X3">
         <v>1026.182059998111</v>
       </c>
       <c r="Y3">
-        <v>573.8005017071878</v>
+        <v>311.9709443323511</v>
       </c>
       <c r="Z3">
-        <v>1.319308491663855</v>
+        <v>2.14156119354377</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>381.4993118998268</v>
+        <v>574.8369747652929</v>
       </c>
       <c r="H4">
-        <v>145.4911264511025</v>
+        <v>178.7006641816803</v>
       </c>
       <c r="I4">
-        <v>236.0081854487242</v>
+        <v>396.1363105836126</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>351.9472915145686</v>
+        <v>575.0594454227252</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.6705782119620457</v>
+        <v>0.6888614972534075</v>
       </c>
       <c r="O4">
-        <v>456.6260876059084</v>
+        <v>814.4638785740743</v>
       </c>
       <c r="P4">
-        <v>104.67879609134</v>
+        <v>239.4044331513487</v>
       </c>
       <c r="Q4">
-        <v>1.472968290199861</v>
+        <v>1.224375768372575</v>
       </c>
       <c r="R4">
-        <v>197.7587442157275</v>
+        <v>281.9384586312422</v>
       </c>
       <c r="S4">
-        <v>4.362164112085015</v>
+        <v>3.402041757761351</v>
       </c>
       <c r="T4">
-        <v>2.622148313822034</v>
+        <v>3.216759027716154</v>
       </c>
       <c r="U4">
-        <v>0.9639939488912774</v>
+        <v>1.1683743395502</v>
       </c>
       <c r="V4">
-        <v>95.75561993248576</v>
+        <v>187.3470400931598</v>
       </c>
       <c r="W4">
-        <v>810.1766092808951</v>
+        <v>650.0484841460068</v>
       </c>
       <c r="X4">
         <v>1046.184794729619</v>
       </c>
       <c r="Y4">
-        <v>694.2375032150508</v>
+        <v>471.1253493068942</v>
       </c>
       <c r="Z4">
-        <v>1.167002078581068</v>
+        <v>1.379778195128619</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>376.3620245090066</v>
+        <v>667.8584177712529</v>
       </c>
       <c r="H5">
-        <v>149.3900181571482</v>
+        <v>172.1436441716588</v>
       </c>
       <c r="I5">
-        <v>226.9720063518584</v>
+        <v>495.7147735995941</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>438.5394629884245</v>
+        <v>629.0649500864163</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.517563470354889</v>
+        <v>0.7880184288307535</v>
       </c>
       <c r="O5">
-        <v>556.9758092718383</v>
+        <v>859.9064499472577</v>
       </c>
       <c r="P5">
-        <v>118.4363462834138</v>
+        <v>230.8414998608416</v>
       </c>
       <c r="Q5">
-        <v>1.548146154505865</v>
+        <v>1.315092276973478</v>
       </c>
       <c r="R5">
-        <v>255.1826889360325</v>
+        <v>325.4870764144489</v>
       </c>
       <c r="S5">
-        <v>4.702743935877724</v>
+        <v>3.725094709857785</v>
       </c>
       <c r="T5">
-        <v>2.519325113898166</v>
+        <v>3.879657718325489</v>
       </c>
       <c r="U5">
-        <v>0.9239910537101368</v>
+        <v>1.35574693281742</v>
       </c>
       <c r="V5">
-        <v>88.93696606105854</v>
+        <v>262.3315560098542</v>
       </c>
       <c r="W5">
-        <v>806.5324277874829</v>
+        <v>537.7896605397473</v>
       </c>
       <c r="X5">
         <v>1033.504434139341</v>
       </c>
       <c r="Y5">
-        <v>594.9649711509169</v>
+        <v>404.4394840529251</v>
       </c>
       <c r="Z5">
-        <v>1.355596492054489</v>
+        <v>1.329716018699529</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>438.8854537525846</v>
+        <v>675.2477205654106</v>
       </c>
       <c r="H6">
-        <v>216.5789923262475</v>
+        <v>191.7746694235157</v>
       </c>
       <c r="I6">
-        <v>222.3064614263372</v>
+        <v>483.473051141895</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>477.0095856866839</v>
+        <v>683.6405294126477</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.4660419163407664</v>
+        <v>0.7072036111686835</v>
       </c>
       <c r="O6">
-        <v>563.3232989669328</v>
+        <v>864.1353785937511</v>
       </c>
       <c r="P6">
-        <v>86.31371328024902</v>
+        <v>180.4948491811035</v>
       </c>
       <c r="Q6">
-        <v>1.875865218703646</v>
+        <v>1.566027203743969</v>
       </c>
       <c r="R6">
-        <v>315.0966930471057</v>
+        <v>400.9806854593746</v>
       </c>
       <c r="S6">
-        <v>6.526463496453893</v>
+        <v>4.787590241573606</v>
       </c>
       <c r="T6">
-        <v>2.026445173830443</v>
+        <v>3.521047501191056</v>
       </c>
       <c r="U6">
-        <v>0.7062831121090631</v>
+        <v>1.258758530905845</v>
       </c>
       <c r="V6">
-        <v>69.34037670871021</v>
+        <v>242.0750499933964</v>
       </c>
       <c r="W6">
-        <v>840.1553984477678</v>
+        <v>578.9888087322099</v>
       </c>
       <c r="X6">
         <v>1062.461859874105</v>
       </c>
       <c r="Y6">
-        <v>585.452274187421</v>
+        <v>378.8213304614573</v>
       </c>
       <c r="Z6">
-        <v>1.435053608108128</v>
+        <v>1.528395478752268</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>572.485287239364</v>
+        <v>529.2093046435155</v>
       </c>
       <c r="H7">
-        <v>155.6103311304925</v>
+        <v>215.3625752490084</v>
       </c>
       <c r="I7">
-        <v>416.8749561088715</v>
+        <v>313.8467293945071</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>498.3883044909633</v>
+        <v>741.0868269053652</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.8364461050799601</v>
+        <v>0.4234952208030334</v>
       </c>
       <c r="O7">
-        <v>537.2979225072849</v>
+        <v>838.7998606466223</v>
       </c>
       <c r="P7">
-        <v>38.90961801632167</v>
+        <v>97.71303374125685</v>
       </c>
       <c r="Q7">
-        <v>2.625311261345743</v>
+        <v>2.149937176997859</v>
       </c>
       <c r="R7">
-        <v>396.2384461380526</v>
+        <v>531.0099429877911</v>
       </c>
       <c r="S7">
-        <v>13.80887168519364</v>
+        <v>8.584319087541136</v>
       </c>
       <c r="T7">
-        <v>3.678967090940037</v>
+        <v>2.457294653129163</v>
       </c>
       <c r="U7">
-        <v>1.302632030972555</v>
+        <v>0.8990610102922342</v>
       </c>
       <c r="V7">
-        <v>214.1719544280461</v>
+        <v>120.2226349119963</v>
       </c>
       <c r="W7">
-        <v>659.3784059449956</v>
+        <v>762.40663265936</v>
       </c>
       <c r="X7">
         <v>1076.253362053867</v>
       </c>
       <c r="Y7">
-        <v>577.8650575629038</v>
+        <v>335.1665351485018</v>
       </c>
       <c r="Z7">
-        <v>1.141059486666087</v>
+        <v>2.274709891074183</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>487.236545423294</v>
+        <v>770.5206179022023</v>
       </c>
       <c r="H8">
-        <v>199.9567516433124</v>
+        <v>252.8956912036476</v>
       </c>
       <c r="I8">
-        <v>287.2797937799817</v>
+        <v>517.6249266985546</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>498.9139075401888</v>
+        <v>820.1507222383964</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.5758103541277622</v>
+        <v>0.6311339033950086</v>
       </c>
       <c r="O8">
-        <v>535.4869833518908</v>
+        <v>928.7605972863145</v>
       </c>
       <c r="P8">
-        <v>36.57307581170198</v>
+        <v>108.609875047918</v>
       </c>
       <c r="Q8">
-        <v>2.683864245990121</v>
+        <v>2.146088672409213</v>
       </c>
       <c r="R8">
-        <v>400.7567370032757</v>
+        <v>587.0642996862796</v>
       </c>
       <c r="S8">
-        <v>14.64156271976872</v>
+        <v>8.551345785791126</v>
       </c>
       <c r="T8">
-        <v>2.436709645555946</v>
+        <v>3.046792194184639</v>
       </c>
       <c r="U8">
-        <v>0.8906486233330759</v>
+        <v>1.114089297541519</v>
       </c>
       <c r="V8">
-        <v>109.1885882027117</v>
+        <v>235.8765437342061</v>
       </c>
       <c r="W8">
-        <v>789.6126229934296</v>
+        <v>559.2674900748566</v>
       </c>
       <c r="X8">
         <v>1076.892416773411</v>
       </c>
       <c r="Y8">
-        <v>577.9785092332224</v>
+        <v>256.7416945350149</v>
       </c>
       <c r="Z8">
-        <v>1.366162600130189</v>
+        <v>2.178327486261032</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>468.662763672174</v>
+        <v>568.7019917617497</v>
       </c>
       <c r="H9">
-        <v>180.3834355010191</v>
+        <v>216.3585436706535</v>
       </c>
       <c r="I9">
-        <v>288.279328171155</v>
+        <v>352.3434480910961</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>353.5430215259461</v>
+        <v>570.1988012359144</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.8154009855063665</v>
+        <v>0.617930881873807</v>
       </c>
       <c r="O9">
-        <v>524.6424153127471</v>
+        <v>806.1950430808654</v>
       </c>
       <c r="P9">
-        <v>171.0993937868009</v>
+        <v>235.9962418449508</v>
       </c>
       <c r="Q9">
-        <v>1.120472278980915</v>
+        <v>1.228509821653091</v>
       </c>
       <c r="R9">
-        <v>161.8308938373964</v>
+        <v>280.2751002561744</v>
       </c>
       <c r="S9">
-        <v>3.066302011370536</v>
+        <v>3.416135090873754</v>
       </c>
       <c r="T9">
-        <v>2.598147453897043</v>
+        <v>2.628516452890542</v>
       </c>
       <c r="U9">
-        <v>0.9547986733341287</v>
+        <v>0.9664196006797053</v>
       </c>
       <c r="V9">
-        <v>116.0494632633296</v>
+        <v>143.2503107132606</v>
       </c>
       <c r="W9">
-        <v>764.8675909938288</v>
+        <v>700.8034710738875</v>
       </c>
       <c r="X9">
         <v>1053.146919164984</v>
       </c>
       <c r="Y9">
-        <v>699.6038976390377</v>
+        <v>482.9481179290693</v>
       </c>
       <c r="Z9">
-        <v>1.093286634873015</v>
+        <v>1.451094734728451</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>382.1259978286265</v>
+        <v>600.2666408218556</v>
       </c>
       <c r="H10">
-        <v>157.0435117205479</v>
+        <v>162.3440212874462</v>
       </c>
       <c r="I10">
-        <v>225.0824861080787</v>
+        <v>437.9226195344094</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>364.3785958534746</v>
+        <v>524.0974120145718</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.6177159928422078</v>
+        <v>0.835574855924367</v>
       </c>
       <c r="O10">
-        <v>428.904737017038</v>
+        <v>675.2340556614342</v>
       </c>
       <c r="P10">
-        <v>64.52614116356334</v>
+        <v>151.1366436468626</v>
       </c>
       <c r="Q10">
-        <v>1.894164404982343</v>
+        <v>1.496875027466027</v>
       </c>
       <c r="R10">
-        <v>242.155476070587</v>
+        <v>297.8647444045509</v>
       </c>
       <c r="S10">
-        <v>6.646991890152455</v>
+        <v>4.467705775173545</v>
       </c>
       <c r="T10">
-        <v>2.433249190890504</v>
+        <v>3.697497672298162</v>
       </c>
       <c r="U10">
-        <v>0.8892274798022712</v>
+        <v>1.307656286068654</v>
       </c>
       <c r="V10">
-        <v>85.43507996151743</v>
+        <v>225.632439592217</v>
       </c>
       <c r="W10">
-        <v>755.2660576580774</v>
+        <v>542.4259242317466</v>
       </c>
       <c r="X10">
         <v>980.3485437661561</v>
       </c>
       <c r="Y10">
-        <v>615.9699479126815</v>
+        <v>456.2511317515844</v>
       </c>
       <c r="Z10">
-        <v>1.226141080774191</v>
+        <v>1.188875788974661</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>437.7169525186301</v>
+        <v>567.710886017036</v>
       </c>
       <c r="H11">
-        <v>127.6867643756472</v>
+        <v>183.9487873420415</v>
       </c>
       <c r="I11">
-        <v>310.0301881429829</v>
+        <v>383.7620986749945</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>432.0515984808058</v>
+        <v>705.3441078077785</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.7175767645186857</v>
+        <v>0.5440778400598448</v>
       </c>
       <c r="O11">
-        <v>506.1946670291917</v>
+        <v>875.9331000902613</v>
       </c>
       <c r="P11">
-        <v>74.14306854838594</v>
+        <v>170.5889922824829</v>
       </c>
       <c r="Q11">
-        <v>1.92092472731819</v>
+        <v>1.63603260883359</v>
       </c>
       <c r="R11">
-        <v>289.6283447469636</v>
+        <v>426.2549537255746</v>
       </c>
       <c r="S11">
-        <v>6.827268913193793</v>
+        <v>5.134757456329773</v>
       </c>
       <c r="T11">
-        <v>3.428052661988455</v>
+        <v>3.08624424341223</v>
       </c>
       <c r="U11">
-        <v>1.231992362924552</v>
+        <v>1.126954896438487</v>
       </c>
       <c r="V11">
-        <v>152.7210695856388</v>
+        <v>176.4601120859588</v>
       </c>
       <c r="W11">
-        <v>779.9630162005086</v>
+        <v>706.231105668497</v>
       </c>
       <c r="X11">
         <v>1089.993204343491</v>
       </c>
       <c r="Y11">
-        <v>657.9416058626857</v>
+        <v>384.6490965357129</v>
       </c>
       <c r="Z11">
-        <v>1.185459331421715</v>
+        <v>1.83603994401408</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>392.8547860912615</v>
+        <v>523.8571569520551</v>
       </c>
       <c r="H12">
-        <v>163.6398834081155</v>
+        <v>101.7345767300749</v>
       </c>
       <c r="I12">
-        <v>229.214902683146</v>
+        <v>422.1225802219802</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>341.2066580477231</v>
+        <v>553.2739489521241</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N12">
-        <v>0.6717773445414033</v>
+        <v>0.7629540140493898</v>
       </c>
       <c r="O12">
-        <v>419.6784218339201</v>
+        <v>736.7200331575632</v>
       </c>
       <c r="P12">
-        <v>78.47176378619696</v>
+        <v>183.4460842054389</v>
       </c>
       <c r="Q12">
-        <v>1.676749892617377</v>
+        <v>1.390287141142696</v>
       </c>
       <c r="R12">
-        <v>209.6291365457212</v>
+        <v>298.2312169883224</v>
       </c>
       <c r="S12">
-        <v>5.348145646087042</v>
+        <v>4.016003047154279</v>
       </c>
       <c r="T12">
-        <v>2.400727609365789</v>
+        <v>5.149253811140022</v>
       </c>
       <c r="U12">
-        <v>0.875771861976068</v>
+        <v>1.638851813137151</v>
       </c>
       <c r="V12">
-        <v>85.90369729727408</v>
+        <v>255.3946846891563</v>
       </c>
       <c r="W12">
-        <v>747.2506426999348</v>
+        <v>554.3429651611006</v>
       </c>
       <c r="X12">
         <v>976.4655453830808</v>
       </c>
       <c r="Y12">
-        <v>635.2588873353577</v>
+        <v>423.1915964309567</v>
       </c>
       <c r="Z12">
-        <v>1.176293094984212</v>
+        <v>1.309910144332323</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>312.1506915296491</v>
+        <v>730.3132473265422</v>
       </c>
       <c r="H13">
-        <v>122.3595534020627</v>
+        <v>160.8965826665356</v>
       </c>
       <c r="I13">
-        <v>189.7911381275864</v>
+        <v>569.4166646600066</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
-        <v>481.1016779712453</v>
+        <v>747.178584671793</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N13">
-        <v>0.3944927794222532</v>
+        <v>0.7620891127522473</v>
       </c>
       <c r="O13">
-        <v>539.9925089263921</v>
+        <v>853.3130213884899</v>
       </c>
       <c r="P13">
-        <v>58.89083095514691</v>
+        <v>106.1344367166967</v>
       </c>
       <c r="Q13">
-        <v>2.215869859953768</v>
+        <v>2.084419884013728</v>
       </c>
       <c r="R13">
-        <v>350.6072606301028</v>
+        <v>525.949854400914</v>
       </c>
       <c r="S13">
-        <v>9.169381721539423</v>
+        <v>8.039926038955928</v>
       </c>
       <c r="T13">
-        <v>2.551093746672557</v>
+        <v>4.539022738849244</v>
       </c>
       <c r="U13">
-        <v>0.9365221874740812</v>
+        <v>1.512711733122332</v>
       </c>
       <c r="V13">
-        <v>75.19870151713492</v>
+        <v>326.026516241051</v>
       </c>
       <c r="W13">
-        <v>916.8343093462921</v>
+        <v>537.2087828138718</v>
       </c>
       <c r="X13">
         <v>1106.625447473878</v>
       </c>
       <c r="Y13">
-        <v>625.5237695026332</v>
+        <v>359.4468628020854</v>
       </c>
       <c r="Z13">
-        <v>1.465706587097859</v>
+        <v>1.494542972571898</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>419.3206126063893</v>
+        <v>546.6315016485418</v>
       </c>
       <c r="H14">
-        <v>145.4279597065121</v>
+        <v>184.5758784685669</v>
       </c>
       <c r="I14">
-        <v>273.8926528998772</v>
+        <v>362.0556231799749</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
-        <v>422.647022411316</v>
+        <v>683.1198569416069</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N14">
-        <v>0.6480411274099253</v>
+        <v>0.5300030726685835</v>
       </c>
       <c r="O14">
-        <v>499.0476433600487</v>
+        <v>829.4438863921494</v>
       </c>
       <c r="P14">
-        <v>76.4006209487325</v>
+        <v>146.3240294505421</v>
       </c>
       <c r="Q14">
-        <v>1.876710745128607</v>
+        <v>1.734931917513215</v>
       </c>
       <c r="R14">
-        <v>279.2651561423322</v>
+        <v>429.257627948718</v>
       </c>
       <c r="S14">
-        <v>6.531984127392462</v>
+        <v>5.66854186224077</v>
       </c>
       <c r="T14">
-        <v>2.883356222920403</v>
+        <v>2.961554381774933</v>
       </c>
       <c r="U14">
-        <v>1.058954970829279</v>
+        <v>1.085714259482016</v>
       </c>
       <c r="V14">
-        <v>119.8909920711062</v>
+        <v>161.6589599702322</v>
       </c>
       <c r="W14">
-        <v>775.163797209123</v>
+        <v>687.0008269290254</v>
       </c>
       <c r="X14">
         <v>1049.056450109</v>
       </c>
       <c r="Y14">
-        <v>626.4094276976842</v>
+        <v>365.9365931673933</v>
       </c>
       <c r="Z14">
-        <v>1.237471473023918</v>
+        <v>1.877376681524619</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>310.7294057363576</v>
+        <v>822.2633751507188</v>
       </c>
       <c r="H15">
-        <v>107.5620415418793</v>
+        <v>266.626253912055</v>
       </c>
       <c r="I15">
-        <v>203.1673641944784</v>
+        <v>555.6371212386639</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
-        <v>433.0427702365808</v>
+        <v>711.2446433515838</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N15">
-        <v>0.469162351061729</v>
+        <v>0.7812180048490014</v>
       </c>
       <c r="O15">
-        <v>504.0151765783277</v>
+        <v>898.1422605119153</v>
       </c>
       <c r="P15">
-        <v>70.97240634174683</v>
+        <v>186.8976171603312</v>
       </c>
       <c r="Q15">
-        <v>1.960315221450556</v>
+        <v>1.569767509929165</v>
       </c>
       <c r="R15">
-        <v>293.9144817818807</v>
+        <v>417.8588362501167</v>
       </c>
       <c r="S15">
-        <v>7.10156527807991</v>
+        <v>4.805530825689655</v>
       </c>
       <c r="T15">
-        <v>2.888838862503136</v>
+        <v>3.083955023506189</v>
       </c>
       <c r="U15">
-        <v>1.060854643709487</v>
+        <v>1.126212871777031</v>
       </c>
       <c r="V15">
-        <v>89.05967293790295</v>
+        <v>255.3592021292167</v>
       </c>
       <c r="W15">
-        <v>919.046805113654</v>
+        <v>566.5770480694684</v>
       </c>
       <c r="X15">
         <v>1122.214169308132</v>
       </c>
       <c r="Y15">
-        <v>689.1713990715516</v>
+        <v>410.9695259565485</v>
       </c>
       <c r="Z15">
-        <v>1.333553316855269</v>
+        <v>1.378635184082657</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>468.1834298240508</v>
+        <v>642.6961235643839</v>
       </c>
       <c r="H16">
-        <v>207.5114767601353</v>
+        <v>209.1894380091958</v>
       </c>
       <c r="I16">
-        <v>260.6719530639155</v>
+        <v>433.5066855551881</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K16">
-        <v>434.2230718995736</v>
+        <v>653.1313508819528</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N16">
-        <v>0.6003180621507906</v>
+        <v>0.6637358396129729</v>
       </c>
       <c r="O16">
-        <v>517.9565270564365</v>
+        <v>817.8240993691464</v>
       </c>
       <c r="P16">
-        <v>83.7334551568629</v>
+        <v>164.6927484871939</v>
       </c>
       <c r="Q16">
-        <v>1.822252713312427</v>
+        <v>1.60256566843303</v>
       </c>
       <c r="R16">
-        <v>281.6395560449558</v>
+        <v>389.2004063164998</v>
       </c>
       <c r="S16">
-        <v>6.185777549560298</v>
+        <v>4.965756579335601</v>
       </c>
       <c r="T16">
-        <v>2.256180897238897</v>
+        <v>3.072316316161868</v>
       </c>
       <c r="U16">
-        <v>0.8136735153674913</v>
+        <v>1.122431777485245</v>
       </c>
       <c r="V16">
-        <v>91.82536028939666</v>
+        <v>198.7058128193871</v>
       </c>
       <c r="W16">
-        <v>742.206390893869</v>
+        <v>569.3716584025963</v>
       </c>
       <c r="X16">
         <v>1002.878343957784</v>
       </c>
       <c r="Y16">
-        <v>568.6552720582108</v>
+        <v>349.7469930758316</v>
       </c>
       <c r="Z16">
-        <v>1.305195656073848</v>
+        <v>1.62795297650821</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>408.8663621180954</v>
+        <v>662.8437592492053</v>
       </c>
       <c r="H17">
-        <v>100.4263767744269</v>
+        <v>162.6958587618513</v>
       </c>
       <c r="I17">
-        <v>308.4399853436685</v>
+        <v>500.147900487354</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K17">
-        <v>471.690825128296</v>
+        <v>795.5460408144911</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N17">
-        <v>0.6539028722040022</v>
+        <v>0.6286850475370296</v>
       </c>
       <c r="O17">
-        <v>525.5309912556432</v>
+        <v>911.2720412530317</v>
       </c>
       <c r="P17">
-        <v>53.84016612734731</v>
+        <v>115.7260004385403</v>
       </c>
       <c r="Q17">
-        <v>2.278389392468204</v>
+        <v>2.063616139117671</v>
       </c>
       <c r="R17">
-        <v>349.0219617350219</v>
+        <v>556.7319985939808</v>
       </c>
       <c r="S17">
-        <v>9.760946688251536</v>
+        <v>7.874393289319537</v>
       </c>
       <c r="T17">
-        <v>4.07130452427326</v>
+        <v>4.074128034318647</v>
       </c>
       <c r="U17">
-        <v>1.403963470032784</v>
+        <v>1.40465674448768</v>
       </c>
       <c r="V17">
-        <v>167.4450209246243</v>
+        <v>271.6160651773047</v>
       </c>
       <c r="W17">
-        <v>777.2896747165228</v>
+        <v>585.5817595728372</v>
       </c>
       <c r="X17">
         <v>1085.729660060191</v>
       </c>
       <c r="Y17">
-        <v>614.0388349318953</v>
+        <v>290.1836192457001</v>
       </c>
       <c r="Z17">
-        <v>1.265864030900805</v>
+        <v>2.017969729287241</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>335.2255771097416</v>
+        <v>817.2648826237985</v>
       </c>
       <c r="H18">
-        <v>101.6293243353096</v>
+        <v>142.3543919081834</v>
       </c>
       <c r="I18">
-        <v>233.596252774432</v>
+        <v>674.9104907156151</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K18">
-        <v>416.7634124449573</v>
+        <v>675.2686233886986</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N18">
-        <v>0.5605008640370596</v>
+        <v>0.9994696441376376</v>
       </c>
       <c r="O18">
-        <v>503.6323301907561</v>
+        <v>908.2513934362495</v>
       </c>
       <c r="P18">
-        <v>86.86891774579868</v>
+        <v>232.9827700475509</v>
       </c>
       <c r="Q18">
-        <v>1.757446208389496</v>
+        <v>1.360556702761525</v>
       </c>
       <c r="R18">
-        <v>264.0959623257045</v>
+        <v>358.2823539725561</v>
       </c>
       <c r="S18">
-        <v>5.797612578350715</v>
+        <v>3.898362927227961</v>
       </c>
       <c r="T18">
-        <v>3.29851230737025</v>
+        <v>5.74105843640513</v>
       </c>
       <c r="U18">
-        <v>1.193471550875965</v>
+        <v>1.747643589918774</v>
       </c>
       <c r="V18">
-        <v>112.3045454454936</v>
+        <v>426.1257502004934</v>
       </c>
       <c r="W18">
-        <v>827.325521117752</v>
+        <v>386.011283176569</v>
       </c>
       <c r="X18">
         <v>1060.921773892184</v>
       </c>
       <c r="Y18">
-        <v>644.1583614472268</v>
+        <v>385.6531505034854</v>
       </c>
       <c r="Z18">
-        <v>1.284351132629878</v>
+        <v>1.000928639303519</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>491.2552440710295</v>
+        <v>708.535378880778</v>
       </c>
       <c r="H19">
-        <v>231.29580805971</v>
+        <v>279.3443971123716</v>
       </c>
       <c r="I19">
-        <v>259.9594360113196</v>
+        <v>429.1909817684065</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K19">
-        <v>414.0192852051964</v>
+        <v>669.0639651681307</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N19">
-        <v>0.6278920941629044</v>
+        <v>0.6414797450054779</v>
       </c>
       <c r="O19">
-        <v>506.8646913088755</v>
+        <v>841.7680953541128</v>
       </c>
       <c r="P19">
-        <v>92.84540610367907</v>
+        <v>172.7041301859817</v>
       </c>
       <c r="Q19">
-        <v>1.697308276885303</v>
+        <v>1.583924654866474</v>
       </c>
       <c r="R19">
-        <v>256.4320089546447</v>
+        <v>395.5136353692854</v>
       </c>
       <c r="S19">
-        <v>5.459232853619784</v>
+        <v>4.874047276388985</v>
       </c>
       <c r="T19">
-        <v>2.123926275154152</v>
+        <v>2.536422373976437</v>
       </c>
       <c r="U19">
-        <v>0.7532663923978721</v>
+        <v>0.9307545739593976</v>
       </c>
       <c r="V19">
-        <v>85.73207709743116</v>
+        <v>169.1899064461363</v>
       </c>
       <c r="W19">
-        <v>828.8280472187217</v>
+        <v>659.5965014616348</v>
       </c>
       <c r="X19">
         <v>1088.787483230041</v>
       </c>
       <c r="Y19">
-        <v>674.7681980248449</v>
+        <v>419.7235180619106</v>
       </c>
       <c r="Z19">
-        <v>1.228315219426219</v>
+        <v>1.571502365431765</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>331.5548073651084</v>
+        <v>697.4494749009284</v>
       </c>
       <c r="H20">
-        <v>145.8399753297261</v>
+        <v>179.4949721516717</v>
       </c>
       <c r="I20">
-        <v>185.7148320353823</v>
+        <v>517.9545027492567</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K20">
-        <v>429.3110576606688</v>
+        <v>700.7387290775803</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N20">
-        <v>0.4325880471081948</v>
+        <v>0.7391549535603202</v>
       </c>
       <c r="O20">
-        <v>504.9803370094003</v>
+        <v>865.2874068575413</v>
       </c>
       <c r="P20">
-        <v>75.66927934873149</v>
+        <v>164.5486777799607</v>
       </c>
       <c r="Q20">
-        <v>1.898147234847214</v>
+        <v>1.659855274020414</v>
       </c>
       <c r="R20">
-        <v>285.6796243019928</v>
+        <v>427.6117384314273</v>
       </c>
       <c r="S20">
-        <v>6.673518518421911</v>
+        <v>5.258549740610065</v>
       </c>
       <c r="T20">
-        <v>2.273415136114115</v>
+        <v>3.885621232396356</v>
       </c>
       <c r="U20">
-        <v>0.8212831661677759</v>
+        <v>1.357282876414836</v>
       </c>
       <c r="V20">
-        <v>65.9389153427546</v>
+        <v>274.3290506452348</v>
       </c>
       <c r="W20">
-        <v>870.252268486519</v>
+        <v>538.0125977726447</v>
       </c>
       <c r="X20">
         <v>1055.967100521901</v>
       </c>
       <c r="Y20">
-        <v>626.6560428612324</v>
+        <v>355.2283714443211</v>
       </c>
       <c r="Z20">
-        <v>1.388723971308179</v>
+        <v>1.514554131994419</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>396.7184570730367</v>
+        <v>725.9150109561735</v>
       </c>
       <c r="H21">
-        <v>149.707856239993</v>
+        <v>233.0979981093219</v>
       </c>
       <c r="I21">
-        <v>247.0106008330437</v>
+        <v>492.8170128468516</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K21">
-        <v>392.8433019128763</v>
+        <v>670.8660091201903</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N21">
-        <v>0.6287764093985369</v>
+        <v>0.7345982746885006</v>
       </c>
       <c r="O21">
-        <v>465.0934976583241</v>
+        <v>879.2841512192156</v>
       </c>
       <c r="P21">
-        <v>72.25019574544778</v>
+        <v>208.4181420990253</v>
       </c>
       <c r="Q21">
-        <v>1.862103419339976</v>
+        <v>1.439561751598643</v>
       </c>
       <c r="R21">
-        <v>258.3059653672954</v>
+        <v>370.8352234151824</v>
       </c>
       <c r="S21">
-        <v>6.43726280406137</v>
+        <v>4.218846509059864</v>
       </c>
       <c r="T21">
-        <v>2.649950824471543</v>
+        <v>3.114205256347687</v>
       </c>
       <c r="U21">
-        <v>0.97454108302276</v>
+        <v>1.135973985288282</v>
       </c>
       <c r="V21">
-        <v>101.1141444759053</v>
+        <v>228.0237509718847</v>
       </c>
       <c r="W21">
-        <v>741.0258367138433</v>
+        <v>495.2194247000355</v>
       </c>
       <c r="X21">
         <v>988.0364375468871</v>
       </c>
       <c r="Y21">
-        <v>595.1931356340108</v>
+        <v>317.1704284266968</v>
       </c>
       <c r="Z21">
-        <v>1.245017444504781</v>
+        <v>1.561366950748022</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>340.7534014482628</v>
+        <v>628.4988242056672</v>
       </c>
       <c r="H22">
-        <v>29.05429525990111</v>
+        <v>57.46640330332205</v>
       </c>
       <c r="I22">
-        <v>311.6991061883617</v>
+        <v>571.0324209023452</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K22">
-        <v>667.499129431919</v>
+        <v>999.8780527028638</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N22">
-        <v>0.4669655621178652</v>
+        <v>0.571102065255592</v>
       </c>
       <c r="O22">
-        <v>688.4041335709715</v>
+        <v>1026.32285866907</v>
       </c>
       <c r="P22">
-        <v>20.90500413905261</v>
+        <v>26.44480596620625</v>
       </c>
       <c r="Q22">
-        <v>3.494387506123712</v>
+        <v>3.658677886062841</v>
       </c>
       <c r="R22">
-        <v>594.4489441529489</v>
+        <v>903.1250259130825</v>
       </c>
       <c r="S22">
-        <v>32.93011228277943</v>
+        <v>38.8099976978695</v>
       </c>
       <c r="T22">
-        <v>11.72815924117592</v>
+        <v>10.93680460369676</v>
       </c>
       <c r="U22">
-        <v>2.461992722915002</v>
+        <v>2.392133670571915</v>
       </c>
       <c r="V22">
-        <v>240.1676426890613</v>
+        <v>433.5651026338034</v>
       </c>
       <c r="W22">
-        <v>779.8945536749239</v>
+        <v>520.5612389609405</v>
       </c>
       <c r="X22">
         <v>1091.593659863286</v>
       </c>
       <c r="Y22">
-        <v>424.0945304313667</v>
+        <v>91.71560716042188</v>
       </c>
       <c r="Z22">
-        <v>1.838963951932264</v>
+        <v>5.675819580525863</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>250.3438574779843</v>
+        <v>595.8401237705311</v>
       </c>
       <c r="H23">
-        <v>19.91312385371694</v>
+        <v>31.78480226123947</v>
       </c>
       <c r="I23">
-        <v>230.4307336242673</v>
+        <v>564.0553215092916</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K23">
-        <v>531.6500937119573</v>
+        <v>807.333669994752</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N23">
-        <v>0.4334255487766591</v>
+        <v>0.6986644338925666</v>
       </c>
       <c r="O23">
-        <v>538.5571331676412</v>
+        <v>834.6814578131207</v>
       </c>
       <c r="P23">
-        <v>6.907039455684126</v>
+        <v>27.34778781836857</v>
       </c>
       <c r="Q23">
-        <v>4.356352485334008</v>
+        <v>3.418414522974997</v>
       </c>
       <c r="R23">
-        <v>501.5605952128875</v>
+        <v>713.8475949452022</v>
       </c>
       <c r="S23">
-        <v>77.9722103258636</v>
+        <v>30.52098631730988</v>
       </c>
       <c r="T23">
-        <v>12.57180236094678</v>
+        <v>18.74606986299042</v>
       </c>
       <c r="U23">
-        <v>2.531456398237999</v>
+        <v>2.930984123138561</v>
       </c>
       <c r="V23">
-        <v>180.0215288358699</v>
+        <v>470.8945707245001</v>
       </c>
       <c r="W23">
-        <v>706.0265430991842</v>
+        <v>372.4019552141599</v>
       </c>
       <c r="X23">
         <v>936.4572767234515</v>
       </c>
       <c r="Y23">
-        <v>404.8071830114942</v>
+        <v>129.1236067286995</v>
       </c>
       <c r="Z23">
-        <v>1.744105768694171</v>
+        <v>2.884073366976267</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>282.0079282822117</v>
+        <v>700.9327473237073</v>
       </c>
       <c r="H24">
-        <v>5.294579588166847</v>
+        <v>55.71196288143033</v>
       </c>
       <c r="I24">
-        <v>276.7133486940448</v>
+        <v>645.220784442277</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K24">
-        <v>608.7419552818253</v>
+        <v>944.1106363531736</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N24">
-        <v>0.4545659228727493</v>
+        <v>0.6834164975988178</v>
       </c>
       <c r="O24">
-        <v>654.8531363540123</v>
+        <v>985.8466438959207</v>
       </c>
       <c r="P24">
-        <v>46.11118107218711</v>
+        <v>41.73600754274699</v>
       </c>
       <c r="Q24">
-        <v>2.653355531066012</v>
+        <v>3.162136562486642</v>
       </c>
       <c r="R24">
-        <v>486.3925979399511</v>
+        <v>812.1356809300353</v>
       </c>
       <c r="S24">
-        <v>14.2016127352895</v>
+        <v>23.62100981715114</v>
       </c>
       <c r="T24">
-        <v>53.26351669403309</v>
+        <v>12.58136872354464</v>
       </c>
       <c r="U24">
-        <v>3.975251607008705</v>
+        <v>2.532217046907463</v>
       </c>
       <c r="V24">
-        <v>255.6660626777491</v>
+        <v>504.1460023172433</v>
       </c>
       <c r="W24">
-        <v>809.8042552153451</v>
+        <v>441.2968194671129</v>
       </c>
       <c r="X24">
         <v>1086.51760390939</v>
       </c>
       <c r="Y24">
-        <v>477.7756486275646</v>
+        <v>142.4069675562163</v>
       </c>
       <c r="Z24">
-        <v>1.694946692117001</v>
+        <v>3.098842893996093</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>130.0971125810535</v>
+        <v>594.8445962520124</v>
       </c>
       <c r="H25">
-        <v>18.39888291039464</v>
+        <v>65.58080822099328</v>
       </c>
       <c r="I25">
-        <v>111.6982296706588</v>
+        <v>529.2637880310191</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K25">
-        <v>527.0992788580903</v>
+        <v>892.5315257935497</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N25">
-        <v>0.2119111790716964</v>
+        <v>0.5929917013972708</v>
       </c>
       <c r="O25">
-        <v>565.1724489516336</v>
+        <v>966.2879719167693</v>
       </c>
       <c r="P25">
-        <v>38.07317009354327</v>
+        <v>73.75644612321969</v>
       </c>
       <c r="Q25">
-        <v>2.697621066910294</v>
+        <v>2.572693500900644</v>
       </c>
       <c r="R25">
-        <v>424.392293129689</v>
+        <v>702.7787962028137</v>
       </c>
       <c r="S25">
-        <v>14.84437590993979</v>
+        <v>13.10106468934878</v>
       </c>
       <c r="T25">
-        <v>7.070924534638661</v>
+        <v>9.070406608096587</v>
       </c>
       <c r="U25">
-        <v>1.955991240049053</v>
+        <v>2.205017093121834</v>
       </c>
       <c r="V25">
-        <v>75.71017587123868</v>
+        <v>384.656984922984</v>
       </c>
       <c r="W25">
-        <v>902.6045615910332</v>
+        <v>485.039003230673</v>
       </c>
       <c r="X25">
         <v>1014.302791261692</v>
       </c>
       <c r="Y25">
-        <v>487.2035124036017</v>
+        <v>121.7712654681424</v>
       </c>
       <c r="Z25">
-        <v>1.852623264430227</v>
+        <v>3.983197525015195</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>415.8470834011787</v>
+        <v>635.9373307650753</v>
       </c>
       <c r="H26">
-        <v>43.59136400547621</v>
+        <v>64.0640833565907</v>
       </c>
       <c r="I26">
-        <v>372.2557193957025</v>
+        <v>571.8732474084846</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K26">
-        <v>629.7313693698236</v>
+        <v>957.1562547441333</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N26">
-        <v>0.5911341525962432</v>
+        <v>0.5974711491190721</v>
       </c>
       <c r="O26">
-        <v>654.114355491709</v>
+        <v>1024.798213576305</v>
       </c>
       <c r="P26">
-        <v>24.38298612188556</v>
+        <v>67.64195883217219</v>
       </c>
       <c r="Q26">
-        <v>3.289396592670972</v>
+        <v>2.718022524106048</v>
       </c>
       <c r="R26">
-        <v>549.5260579013495</v>
+        <v>773.3038870636351</v>
       </c>
       <c r="S26">
-        <v>26.82667136100251</v>
+        <v>15.15033318474636</v>
       </c>
       <c r="T26">
-        <v>9.539666695195349</v>
+        <v>9.926581283077894</v>
       </c>
       <c r="U26">
-        <v>2.255458547239312</v>
+        <v>2.295216137114686</v>
       </c>
       <c r="V26">
-        <v>273.9372048637311</v>
+        <v>424.8323294789773</v>
       </c>
       <c r="W26">
-        <v>735.5682117366398</v>
+        <v>535.9506837238577</v>
       </c>
       <c r="X26">
         <v>1107.823931132342</v>
       </c>
       <c r="Y26">
-        <v>478.0925617625187</v>
+        <v>150.667676388209</v>
       </c>
       <c r="Z26">
-        <v>1.53854770094084</v>
+        <v>3.557170964413973</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>408.7001176638178</v>
+        <v>779.821034346813</v>
       </c>
       <c r="H27">
-        <v>8.052271486016584</v>
+        <v>35.01479716771104</v>
       </c>
       <c r="I27">
-        <v>400.6478461778012</v>
+        <v>744.8062371791019</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K27">
-        <v>668.9949982946198</v>
+        <v>941.5771886820114</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N27">
-        <v>0.598880181763869</v>
+        <v>0.7910198400427022</v>
       </c>
       <c r="O27">
-        <v>688.332419714242</v>
+        <v>988.5010461444532</v>
       </c>
       <c r="P27">
-        <v>19.33742141962198</v>
+        <v>46.92385746244165</v>
       </c>
       <c r="Q27">
-        <v>3.572229737170086</v>
+        <v>3.047663466912241</v>
       </c>
       <c r="R27">
-        <v>599.9172864592566</v>
+        <v>798.5690625671308</v>
       </c>
       <c r="S27">
-        <v>35.59587417460843</v>
+        <v>21.06606531518982</v>
       </c>
       <c r="T27">
-        <v>50.75587905519061</v>
+        <v>22.27118525381396</v>
       </c>
       <c r="U27">
-        <v>3.927027454664594</v>
+        <v>3.103293701847377</v>
       </c>
       <c r="V27">
-        <v>369.0263549798012</v>
+        <v>636.1450376570808</v>
       </c>
       <c r="W27">
-        <v>684.5725810893647</v>
+        <v>340.4141900880639</v>
       </c>
       <c r="X27">
         <v>1085.220427267166</v>
       </c>
       <c r="Y27">
-        <v>416.2254289725461</v>
+        <v>143.6432385851544</v>
       </c>
       <c r="Z27">
-        <v>1.644715900177542</v>
+        <v>2.369858779578128</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>504.3919063663732</v>
+        <v>578.1556448810945</v>
       </c>
       <c r="H28">
-        <v>43.73031198321226</v>
+        <v>49.16795879209533</v>
       </c>
       <c r="I28">
-        <v>460.6615943831609</v>
+        <v>528.9876860889992</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K28">
-        <v>745.3959225024744</v>
+        <v>1111.759558438628</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N28">
-        <v>0.6180092759786082</v>
+        <v>0.475811232810013</v>
       </c>
       <c r="O28">
-        <v>779.9290081588406</v>
+        <v>1167.702173078015</v>
       </c>
       <c r="P28">
-        <v>34.53308565636632</v>
+        <v>55.94261463938647</v>
       </c>
       <c r="Q28">
-        <v>3.117285031341922</v>
+        <v>3.038466715320712</v>
       </c>
       <c r="R28">
-        <v>637.7464514998351</v>
+        <v>941.7797858888393</v>
       </c>
       <c r="S28">
-        <v>22.58497882059541</v>
+        <v>20.87321410708416</v>
       </c>
       <c r="T28">
-        <v>11.5341483628108</v>
+        <v>11.75878883493622</v>
       </c>
       <c r="U28">
-        <v>2.445312058194487</v>
+        <v>2.464600946940111</v>
       </c>
       <c r="V28">
-        <v>353.7273351820051</v>
+        <v>407.8082882908888</v>
       </c>
       <c r="W28">
-        <v>740.4628168389634</v>
+        <v>672.1367251331251</v>
       </c>
       <c r="X28">
         <v>1201.124411222124</v>
       </c>
       <c r="Y28">
-        <v>455.7284887196499</v>
+        <v>89.36485278349642</v>
       </c>
       <c r="Z28">
-        <v>1.624789398001566</v>
+        <v>7.521264839561767</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>219.6106889315807</v>
+        <v>500.4183597937441</v>
       </c>
       <c r="H29">
-        <v>28.42973331290669</v>
+        <v>57.25946576382392</v>
       </c>
       <c r="I29">
-        <v>191.180955618674</v>
+        <v>443.1588940299201</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K29">
-        <v>509.5000894733349</v>
+        <v>802.8340291155341</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N29">
-        <v>0.3752324279595238</v>
+        <v>0.551993161672705</v>
       </c>
       <c r="O29">
-        <v>524.8087351725844</v>
+        <v>865.7291707031663</v>
       </c>
       <c r="P29">
-        <v>15.30864569924952</v>
+        <v>62.8951415876321</v>
       </c>
       <c r="Q29">
-        <v>3.534616135072147</v>
+        <v>2.622103203278788</v>
       </c>
       <c r="R29">
-        <v>455.3899033786647</v>
+        <v>637.9164768879311</v>
       </c>
       <c r="S29">
-        <v>34.28185258728094</v>
+        <v>13.76464300500766</v>
       </c>
       <c r="T29">
-        <v>7.724683397993067</v>
+        <v>8.739487054556218</v>
       </c>
       <c r="U29">
-        <v>2.044420837865371</v>
+        <v>2.167851498535109</v>
       </c>
       <c r="V29">
-        <v>133.0586164188123</v>
+        <v>319.0288753684947</v>
       </c>
       <c r="W29">
-        <v>730.9627802065022</v>
+        <v>478.9848417952561</v>
       </c>
       <c r="X29">
         <v>922.1437358251762</v>
       </c>
       <c r="Y29">
-        <v>412.6436463518414</v>
+        <v>119.3097067096421</v>
       </c>
       <c r="Z29">
-        <v>1.771414116438971</v>
+        <v>4.01463430767571</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>247.1358962547452</v>
+        <v>835.04846003893</v>
       </c>
       <c r="H30">
-        <v>28.80713491920351</v>
+        <v>76.71638923120015</v>
       </c>
       <c r="I30">
-        <v>218.3287613355417</v>
+        <v>758.3320708077298</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K30">
-        <v>482.7111968573355</v>
+        <v>777.0037668159453</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N30">
-        <v>0.452296865614386</v>
+        <v>0.9759696197037377</v>
       </c>
       <c r="O30">
-        <v>524.6575727565482</v>
+        <v>848.786919010911</v>
       </c>
       <c r="P30">
-        <v>41.94637589921254</v>
+        <v>71.78315219496568</v>
       </c>
       <c r="Q30">
-        <v>2.52635376919962</v>
+        <v>2.470158376600579</v>
       </c>
       <c r="R30">
-        <v>376.739812000096</v>
+        <v>599.6880121227565</v>
       </c>
       <c r="S30">
-        <v>12.50781650403313</v>
+        <v>11.82431939886917</v>
       </c>
       <c r="T30">
-        <v>8.578982149661771</v>
+        <v>10.88487699182954</v>
       </c>
       <c r="U30">
-        <v>2.149315275887156</v>
+        <v>2.387374393917975</v>
       </c>
       <c r="V30">
-        <v>156.4131461991552</v>
+        <v>575.1813275633178</v>
       </c>
       <c r="W30">
-        <v>836.5702477259495</v>
+        <v>296.5669382537614</v>
       </c>
       <c r="X30">
         <v>1054.899009061491</v>
       </c>
       <c r="Y30">
-        <v>572.1878122041556</v>
+        <v>277.8952422455459</v>
       </c>
       <c r="Z30">
-        <v>1.462055342464132</v>
+        <v>1.067189692984083</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>434.4500643415045</v>
+        <v>679.481379506661</v>
       </c>
       <c r="H31">
-        <v>34.92830979579996</v>
+        <v>36.33294379057925</v>
       </c>
       <c r="I31">
-        <v>399.5217545457045</v>
+        <v>643.1484357160817</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K31">
-        <v>720.3121679273218</v>
+        <v>1002.505455770264</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N31">
-        <v>0.5546508476947116</v>
+        <v>0.6415410829080483</v>
       </c>
       <c r="O31">
-        <v>724.8431737829848</v>
+        <v>1055.43666152</v>
       </c>
       <c r="P31">
-        <v>4.531005855662935</v>
+        <v>52.93120574973614</v>
       </c>
       <c r="Q31">
-        <v>5.075011361392683</v>
+        <v>2.992716791761358</v>
       </c>
       <c r="R31">
-        <v>697.3172617312957</v>
+        <v>844.0973475148535</v>
       </c>
       <c r="S31">
-        <v>159.9740094966027</v>
+        <v>19.93978120412006</v>
       </c>
       <c r="T31">
-        <v>12.43833632034912</v>
+        <v>18.7015228775061</v>
       </c>
       <c r="U31">
-        <v>2.520783342061195</v>
+        <v>2.928604957844496</v>
       </c>
       <c r="V31">
-        <v>311.4750530460991</v>
+        <v>536.743596397906</v>
       </c>
       <c r="W31">
-        <v>692.7694753067351</v>
+        <v>449.1427941363578</v>
       </c>
       <c r="X31">
         <v>1092.29122985244</v>
       </c>
       <c r="Y31">
-        <v>371.9790619251178</v>
+        <v>89.78577408217552</v>
       </c>
       <c r="Z31">
-        <v>1.862388360574432</v>
+        <v>5.00238260156096</v>
       </c>
     </row>
   </sheetData>
